--- a/database.xlsx
+++ b/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivan/Desktop/Python/_git_lessons_/openpyxl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180AC61C-0F22-4344-9A0D-AECD28FE7B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7AD455-0BE4-E24E-B2E6-EE8940503E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40900" yWindow="-4260" windowWidth="27840" windowHeight="16740" xr2:uid="{FEBE10BA-0CE7-D549-B80F-62492694658D}"/>
+    <workbookView xWindow="4140" yWindow="2560" windowWidth="27840" windowHeight="16740" activeTab="1" xr2:uid="{FEBE10BA-0CE7-D549-B80F-62492694658D}"/>
   </bookViews>
   <sheets>
     <sheet name="staff" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
   <si>
     <t>Васечкин Петя</t>
   </si>
@@ -169,6 +169,12 @@
   </si>
   <si>
     <t>chebotareva</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> vasechkin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vasechkin </t>
   </si>
 </sst>
 </file>
@@ -177,8 +183,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-m\-d\ hh:mm"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-m\-d\ hh:mm"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -247,10 +253,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -569,7 +575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F05B3F11-AA31-FA49-B02D-878B38CC1474}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -772,8 +778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266F5FAE-F5C8-184F-86CE-FEC63C2FC930}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -821,7 +827,7 @@
         <v>44872.09033564815</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>20</v>
@@ -840,7 +846,7 @@
         <v>44901</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>20</v>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivan/Desktop/Python/_git_lessons_/openpyxl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7AD455-0BE4-E24E-B2E6-EE8940503E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57815105-24D7-2C4D-9514-611E0130E3A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4140" yWindow="2560" windowWidth="27840" windowHeight="16740" activeTab="1" xr2:uid="{FEBE10BA-0CE7-D549-B80F-62492694658D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
   <si>
     <t>Васечкин Петя</t>
   </si>
@@ -171,10 +171,7 @@
     <t>chebotareva</t>
   </si>
   <si>
-    <t xml:space="preserve"> vasechkin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vasechkin </t>
+    <t>TEST-006</t>
   </si>
 </sst>
 </file>
@@ -776,10 +773,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266F5FAE-F5C8-184F-86CE-FEC63C2FC930}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -827,7 +824,7 @@
         <v>44872.09033564815</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>20</v>
@@ -846,7 +843,7 @@
         <v>44901</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>20</v>
@@ -910,6 +907,25 @@
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5">
+        <v>44867.433912037035</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivan/Desktop/Python/_git_lessons_/openpyxl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57815105-24D7-2C4D-9514-611E0130E3A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2471908E-3179-A347-B5CB-615CD5A72E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4140" yWindow="2560" windowWidth="27840" windowHeight="16740" activeTab="1" xr2:uid="{FEBE10BA-0CE7-D549-B80F-62492694658D}"/>
   </bookViews>
@@ -776,7 +776,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivan/Desktop/Python/_git_lessons_/openpyxl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2471908E-3179-A347-B5CB-615CD5A72E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1286F32-7814-A949-8216-2B523D497C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4140" yWindow="2560" windowWidth="27840" windowHeight="16740" activeTab="1" xr2:uid="{FEBE10BA-0CE7-D549-B80F-62492694658D}"/>
   </bookViews>
@@ -776,7 +776,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B6" sqref="B6:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
